--- a/2.xlsx
+++ b/2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="658" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="658"/>
   </bookViews>
   <sheets>
     <sheet name="Verkáætlun" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="79">
   <si>
     <t>Ítrun 1</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>Verkþættir ítrunar 3</t>
+  </si>
+  <si>
+    <t>Actual work:</t>
   </si>
 </sst>
 </file>
@@ -961,98 +964,98 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1389,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1596,11 +1599,10 @@
       <c r="T6" s="40"/>
       <c r="U6" s="1"/>
       <c r="Y6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Z6">
-        <f>4.3/0.8</f>
-        <v>5.3749999999999991</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="12.75" customHeight="1">
@@ -1645,13 +1647,12 @@
       </c>
       <c r="T7" s="42"/>
       <c r="U7" s="1"/>
-      <c r="W7" s="31"/>
       <c r="Y7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z7" s="31">
-        <f>(4*2)-Z8</f>
-        <v>1.5999999999999996</v>
+        <v>16</v>
+      </c>
+      <c r="Z7">
+        <f>4.3/0.8</f>
+        <v>5.3749999999999991</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="12.75" customHeight="1">
@@ -1676,21 +1677,14 @@
       <c r="S8" s="44"/>
       <c r="T8" s="45"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z8" s="2">
-        <f>(4*2)*0.8</f>
-        <v>6.4</v>
-      </c>
-      <c r="AA8" s="1"/>
+      <c r="W8" s="31"/>
+      <c r="Y8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z8" s="31">
+        <f>(4*2)-Z9</f>
+        <v>1.5999999999999996</v>
+      </c>
     </row>
     <row r="9" spans="1:27" ht="12.75" customHeight="1">
       <c r="B9" s="24"/>
@@ -1712,8 +1706,21 @@
       <c r="R9" s="24"/>
       <c r="S9" s="24"/>
       <c r="T9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="Z9" s="24"/>
+      <c r="V9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z9" s="2">
+        <f>(4*2)*0.8</f>
+        <v>6.4</v>
+      </c>
+      <c r="AA9" s="1"/>
     </row>
     <row r="10" spans="1:27" ht="12.75" customHeight="1">
       <c r="B10" s="31"/>
@@ -1733,6 +1740,8 @@
       <c r="N10" s="37"/>
       <c r="O10" s="39"/>
       <c r="P10" s="26"/>
+      <c r="W10" s="24"/>
+      <c r="Z10" s="24"/>
     </row>
     <row r="11" spans="1:27" ht="12.75" customHeight="1">
       <c r="A11" s="6"/>
@@ -1850,11 +1859,10 @@
       <c r="Q14" s="35"/>
       <c r="R14" s="35"/>
       <c r="Y14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Z14">
-        <f>5/0.7</f>
-        <v>7.1428571428571432</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="12.75" customHeight="1">
@@ -1888,13 +1896,12 @@
       <c r="P15" s="35"/>
       <c r="Q15" s="35"/>
       <c r="R15" s="35"/>
-      <c r="W15" s="31"/>
       <c r="Y15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z15" s="31">
-        <f>(4*2)-Z16</f>
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="Z15">
+        <f>5/0.7</f>
+        <v>7.1428571428571432</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="12.75" customHeight="1">
@@ -1916,21 +1923,14 @@
       <c r="P16" s="35"/>
       <c r="Q16" s="35"/>
       <c r="R16" s="35"/>
-      <c r="V16" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z16" s="2">
-        <f>(4*2.5)*0.7</f>
-        <v>7</v>
-      </c>
-      <c r="AA16" s="1"/>
+      <c r="W16" s="31"/>
+      <c r="Y16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z16" s="31">
+        <f>(4*2)-Z17</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:27" ht="12.75" customHeight="1">
       <c r="B17" s="24"/>
@@ -1949,8 +1949,21 @@
       <c r="O17" s="35"/>
       <c r="P17" s="35"/>
       <c r="Q17" s="35"/>
-      <c r="W17" s="24"/>
-      <c r="Z17" s="24"/>
+      <c r="V17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z17" s="2">
+        <f>(4*2.5)*0.7</f>
+        <v>7</v>
+      </c>
+      <c r="AA17" s="1"/>
     </row>
     <row r="18" spans="1:27" ht="12.75" customHeight="1">
       <c r="B18" s="31"/>
@@ -1973,6 +1986,8 @@
       </c>
       <c r="P18" s="31"/>
       <c r="Q18" s="31"/>
+      <c r="W18" s="24"/>
+      <c r="Z18" s="24"/>
     </row>
     <row r="19" spans="1:27" ht="12.75" customHeight="1">
       <c r="A19" s="6"/>
@@ -2099,11 +2114,10 @@
       <c r="Q22" s="40"/>
       <c r="R22" s="1"/>
       <c r="Y22" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Z22">
-        <f>8/0.8</f>
-        <v>10</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="12.75" customHeight="1">
@@ -2141,13 +2155,12 @@
       </c>
       <c r="Q23" s="42"/>
       <c r="R23" s="1"/>
-      <c r="W23" s="31"/>
       <c r="Y23" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z23" s="31">
-        <f>(4*3)-Z24</f>
-        <v>0.79999999999999893</v>
+        <v>16</v>
+      </c>
+      <c r="Z23">
+        <f>8/0.8</f>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="12.75" customHeight="1">
@@ -2169,21 +2182,14 @@
       <c r="P24" s="44"/>
       <c r="Q24" s="45"/>
       <c r="R24" s="1"/>
-      <c r="V24" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="W24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z24" s="2">
-        <f>(4*3.5)*0.8</f>
-        <v>11.200000000000001</v>
-      </c>
-      <c r="AA24" s="1"/>
+      <c r="W24" s="31"/>
+      <c r="Y24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z24" s="31">
+        <f>(4*3)-Z25</f>
+        <v>0.79999999999999893</v>
+      </c>
     </row>
     <row r="25" spans="1:27" ht="12.75" customHeight="1">
       <c r="B25" s="24"/>
@@ -2202,8 +2208,25 @@
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
       <c r="Q25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="Z25" s="24"/>
+      <c r="V25" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z25" s="2">
+        <f>(4*3.5)*0.8</f>
+        <v>11.200000000000001</v>
+      </c>
+      <c r="AA25" s="1"/>
+    </row>
+    <row r="26" spans="1:27" ht="12.75" customHeight="1">
+      <c r="W26" s="24"/>
+      <c r="Z26" s="24"/>
     </row>
     <row r="32" spans="1:27" ht="12.75" customHeight="1">
       <c r="V32" s="26"/>
@@ -2258,7 +2281,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" customHeight="1">
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="78" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2360,15 +2383,15 @@
     <row r="8" spans="1:12" ht="12.75" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="22"/>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="55"/>
+      <c r="D8" s="81"/>
       <c r="E8" s="22"/>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="55"/>
+      <c r="G8" s="81"/>
       <c r="H8" s="32"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -2530,20 +2553,20 @@
     <row r="18" spans="1:12" ht="12.75" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="22"/>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="55"/>
+      <c r="D18" s="81"/>
       <c r="E18" s="22"/>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="55"/>
+      <c r="G18" s="81"/>
       <c r="H18" s="22"/>
-      <c r="I18" s="54" t="s">
+      <c r="I18" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="55"/>
+      <c r="J18" s="81"/>
       <c r="K18" s="22"/>
       <c r="L18" s="1"/>
     </row>
@@ -2711,15 +2734,15 @@
     <row r="28" spans="1:12" ht="12.75" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="22"/>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="55"/>
+      <c r="D28" s="81"/>
       <c r="E28" s="22"/>
-      <c r="F28" s="54" t="s">
+      <c r="F28" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="G28" s="55"/>
+      <c r="G28" s="81"/>
       <c r="H28" s="32"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -2963,15 +2986,15 @@
     <row r="44" spans="1:12" ht="12.75" customHeight="1">
       <c r="A44" s="6"/>
       <c r="B44" s="22"/>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="55"/>
+      <c r="D44" s="81"/>
       <c r="E44" s="22"/>
-      <c r="F44" s="54" t="s">
+      <c r="F44" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="G44" s="55"/>
+      <c r="G44" s="81"/>
       <c r="H44" s="32"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
@@ -3188,7 +3211,6 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="I18:J18"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="C44:D44"/>
@@ -3197,6 +3219,7 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:J18"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3234,551 +3257,551 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" customHeight="1">
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="79" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1">
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A3" s="57"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="58"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="56"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A4" s="57"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="59" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="76"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="58"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="56"/>
     </row>
     <row r="5" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A5" s="57"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="62" t="s">
+      <c r="A5" s="55"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="58"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A6" s="57"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="63" t="s">
+      <c r="A6" s="55"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="62">
         <v>20</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="58"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="56"/>
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A7" s="57"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="58"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="56"/>
     </row>
     <row r="8" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A8" s="57"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="65" t="s">
+      <c r="A8" s="55"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="65" t="s">
+      <c r="D8" s="83"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="65" t="s">
+      <c r="G8" s="83"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="66"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="58"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="56"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A9" s="57"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="67" t="s">
+      <c r="A9" s="55"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="75"/>
-      <c r="F9" s="67" t="s">
+      <c r="E9" s="71"/>
+      <c r="F9" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="68" t="s">
+      <c r="G9" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="75"/>
-      <c r="I9" s="67" t="s">
+      <c r="H9" s="71"/>
+      <c r="I9" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="68" t="s">
+      <c r="J9" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="75"/>
-      <c r="L9" s="58"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="56"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A10" s="57"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="64" t="s">
+      <c r="A10" s="55"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="75"/>
-      <c r="F10" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="64" t="s">
+      <c r="E10" s="71"/>
+      <c r="F10" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="75"/>
-      <c r="I10" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="64" t="s">
+      <c r="H10" s="71"/>
+      <c r="I10" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="75"/>
-      <c r="L10" s="58"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="56"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A11" s="57"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="58"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="56"/>
     </row>
     <row r="12" spans="1:12" ht="12.75" customHeight="1">
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
     </row>
     <row r="13" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A13" s="57"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="58"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="56"/>
     </row>
     <row r="14" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A14" s="57"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="59" t="s">
+      <c r="A14" s="55"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="76"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="58"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="56"/>
     </row>
     <row r="15" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A15" s="57"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="62" t="s">
+      <c r="A15" s="55"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="76"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="58"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="56"/>
     </row>
     <row r="16" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A16" s="57"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="63" t="s">
+      <c r="A16" s="55"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="62">
         <v>20</v>
       </c>
-      <c r="E16" s="76"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="58"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="56"/>
     </row>
     <row r="17" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A17" s="57"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="58"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="56"/>
     </row>
     <row r="18" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A18" s="57"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="65" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="66"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="65" t="s">
+      <c r="D18" s="83"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="66"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="65" t="s">
+      <c r="G18" s="83"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="66"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="58"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="56"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A19" s="57"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="67" t="s">
+      <c r="A19" s="55"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="68" t="s">
+      <c r="D19" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="75"/>
-      <c r="F19" s="67" t="s">
+      <c r="E19" s="71"/>
+      <c r="F19" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="68" t="s">
+      <c r="G19" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="75"/>
-      <c r="I19" s="67" t="s">
+      <c r="H19" s="71"/>
+      <c r="I19" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="J19" s="68" t="s">
+      <c r="J19" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="K19" s="75"/>
-      <c r="L19" s="58"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="56"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A20" s="57"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="64" t="s">
+      <c r="A20" s="55"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="75"/>
-      <c r="F20" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="64" t="s">
+      <c r="E20" s="71"/>
+      <c r="F20" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="75"/>
-      <c r="I20" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="64" t="s">
+      <c r="H20" s="71"/>
+      <c r="I20" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="75"/>
-      <c r="L20" s="58"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="56"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A21" s="57"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="58"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="56"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1">
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A23" s="57"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="58"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="56"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A24" s="57"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="59" t="s">
+      <c r="A24" s="55"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="76"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="58"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="56"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A25" s="57"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="62" t="s">
+      <c r="A25" s="55"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="76"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="58"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="56"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A26" s="57"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="63" t="s">
+      <c r="A26" s="55"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="64">
+      <c r="D26" s="62">
         <v>20</v>
       </c>
-      <c r="E26" s="76"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="58"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="56"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A27" s="57"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="58"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="56"/>
     </row>
     <row r="28" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A28" s="57"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="65" t="s">
+      <c r="A28" s="55"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="66"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="65" t="s">
+      <c r="D28" s="83"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="G28" s="66"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="58"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="56"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A29" s="57"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="67" t="s">
+      <c r="A29" s="55"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="75"/>
-      <c r="F29" s="67" t="s">
+      <c r="E29" s="71"/>
+      <c r="F29" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="68" t="s">
+      <c r="G29" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="76"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="58"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="56"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A30" s="57"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="64" t="s">
+      <c r="A30" s="55"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="75"/>
-      <c r="F30" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="64" t="s">
+      <c r="E30" s="71"/>
+      <c r="F30" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="H30" s="76"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="58"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="56"/>
     </row>
     <row r="31" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A31" s="57"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="58"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="56"/>
     </row>
     <row r="32" spans="1:12" ht="12.75" customHeight="1">
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
     </row>
     <row r="43" spans="1:12" ht="12.75" customHeight="1">
       <c r="A43" s="52"/>
@@ -4062,15 +4085,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="I18:J18"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4087,7 +4110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -4104,7 +4127,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="78" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4187,15 +4210,15 @@
     <row r="8" spans="1:9" ht="12.75" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="22"/>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="55"/>
+      <c r="D8" s="81"/>
       <c r="E8" s="22"/>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="55"/>
+      <c r="G8" s="81"/>
       <c r="H8" s="22"/>
       <c r="I8" s="1"/>
     </row>
@@ -4327,15 +4350,15 @@
     <row r="18" spans="1:9" ht="12.75" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="22"/>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="55"/>
+      <c r="D18" s="81"/>
       <c r="E18" s="22"/>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="55"/>
+      <c r="G18" s="81"/>
       <c r="H18" s="22"/>
       <c r="I18" s="1"/>
     </row>
@@ -4467,15 +4490,15 @@
     <row r="28" spans="1:9" ht="12.75" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="22"/>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="55"/>
+      <c r="D28" s="81"/>
       <c r="E28" s="22"/>
-      <c r="F28" s="54" t="s">
+      <c r="F28" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="G28" s="55"/>
+      <c r="G28" s="81"/>
       <c r="H28" s="22"/>
       <c r="I28" s="1"/>
     </row>
@@ -4668,15 +4691,15 @@
     </row>
     <row r="44" spans="1:9" ht="12.75" customHeight="1">
       <c r="B44" s="22"/>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="55"/>
+      <c r="D44" s="81"/>
       <c r="E44" s="22"/>
-      <c r="F44" s="54" t="s">
+      <c r="F44" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="G44" s="55"/>
+      <c r="G44" s="81"/>
       <c r="H44" s="22"/>
     </row>
     <row r="45" spans="1:9" ht="12.75" customHeight="1">

--- a/2.xlsx
+++ b/2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="25580" windowHeight="15540" tabRatio="658" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="658" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Verkáætlun" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="81">
   <si>
     <t>Ítrun 1</t>
   </si>
@@ -201,12 +201,6 @@
     <t>Hanna útlit</t>
   </si>
   <si>
-    <t>Forrit sem varar einstakling við ef verð fellur innan marka sem hann hefur sett</t>
-  </si>
-  <si>
-    <t>Forrit sem bendir einstakling á ef fyrirtæki gengur vel</t>
-  </si>
-  <si>
     <t>Verkþættir ítrunar 1</t>
   </si>
   <si>
@@ -267,7 +261,10 @@
     <t>Setja upp unittest prófanir fyrir það sem gert er í ítrun þrjú.</t>
   </si>
   <si>
-    <t>Hægt á að vera að stilla forritið þannig að það gefi frá sér aðvörun þegar stærð fer út fyrir ákveðinn ramma og bendir á ef fyrirtæki virðist vera ganga vel.</t>
+    <t>Forritið þarf að geta sagt hvort eigi að kaupa eða selja.</t>
+  </si>
+  <si>
+    <t>Forritið bendir notanda á hvort vissara sé að kaupa eða selja</t>
   </si>
 </sst>
 </file>
@@ -805,7 +802,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -819,8 +816,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1061,6 +1060,12 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1070,26 +1075,37 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1422,7 +1438,7 @@
   <dimension ref="A2:AA37"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1551,21 +1567,21 @@
         <v>7</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H5" s="33"/>
       <c r="I5" s="33" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K5" s="38"/>
       <c r="M5" s="33"/>
@@ -1574,14 +1590,14 @@
         <v>7</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="33"/>
       <c r="R5" s="33" t="s">
         <v>7</v>
       </c>
       <c r="S5" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="T5" s="38"/>
       <c r="U5" s="1"/>
@@ -1743,7 +1759,7 @@
       </c>
       <c r="X9" s="1"/>
       <c r="Y9" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Z9" s="2">
         <f>(4*2)*0.8</f>
@@ -1813,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K12" s="38"/>
       <c r="L12" s="33"/>
@@ -1831,21 +1847,21 @@
         <v>7</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33" t="s">
         <v>7</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K13" s="38"/>
       <c r="L13" s="33"/>
@@ -1986,7 +2002,7 @@
       </c>
       <c r="X17" s="1"/>
       <c r="Y17" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Z17" s="2">
         <f>(4*2.5)*0.7</f>
@@ -2077,7 +2093,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T20" s="38"/>
     </row>
@@ -2088,21 +2104,21 @@
         <v>7</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="33" t="s">
         <v>7</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H21" s="33"/>
       <c r="I21" s="33" t="s">
         <v>7</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K21" s="38"/>
       <c r="M21" s="33"/>
@@ -2110,15 +2126,15 @@
       <c r="O21" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P21" s="33" t="s">
-        <v>81</v>
+      <c r="P21" s="85" t="s">
+        <v>79</v>
       </c>
       <c r="Q21" s="33"/>
       <c r="R21" s="33" t="s">
         <v>7</v>
       </c>
       <c r="S21" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="T21" s="38"/>
     </row>
@@ -2269,11 +2285,11 @@
         <v>14</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="X25" s="1"/>
       <c r="Y25" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Z25" s="2">
         <f>(4*3.75)*0.8</f>
@@ -2339,7 +2355,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" customHeight="1">
       <c r="D1" s="76" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1">
@@ -3210,10 +3226,10 @@
     </row>
     <row r="54" spans="1:12" ht="12.75" customHeight="1">
       <c r="B54" s="20"/>
-      <c r="C54" s="83" t="s">
+      <c r="C54" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="84"/>
+      <c r="D54" s="81"/>
       <c r="E54" s="30"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -3268,16 +3284,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3316,7 +3332,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" customHeight="1">
       <c r="D1" s="77" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1">
@@ -3416,20 +3432,20 @@
     <row r="8" spans="1:12" ht="12.75" customHeight="1">
       <c r="A8" s="53"/>
       <c r="B8" s="69"/>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="81"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="69"/>
-      <c r="F8" s="80" t="s">
+      <c r="F8" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="81"/>
+      <c r="G8" s="83"/>
       <c r="H8" s="69"/>
-      <c r="I8" s="80" t="s">
+      <c r="I8" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="81"/>
+      <c r="J8" s="83"/>
       <c r="K8" s="69"/>
       <c r="L8" s="54"/>
     </row>
@@ -3596,20 +3612,20 @@
     <row r="18" spans="1:12" ht="12.75" customHeight="1">
       <c r="A18" s="53"/>
       <c r="B18" s="69"/>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="81"/>
+      <c r="D18" s="83"/>
       <c r="E18" s="69"/>
-      <c r="F18" s="80" t="s">
+      <c r="F18" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="81"/>
+      <c r="G18" s="83"/>
       <c r="H18" s="69"/>
-      <c r="I18" s="80" t="s">
+      <c r="I18" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="81"/>
+      <c r="J18" s="83"/>
       <c r="K18" s="69"/>
       <c r="L18" s="54"/>
     </row>
@@ -3712,7 +3728,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="56" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E24" s="70"/>
       <c r="F24" s="71"/>
@@ -3776,18 +3792,18 @@
     <row r="28" spans="1:12" ht="12.75" customHeight="1">
       <c r="A28" s="53"/>
       <c r="B28" s="69"/>
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="81"/>
+      <c r="D28" s="83"/>
       <c r="E28" s="69"/>
-      <c r="F28" s="80" t="s">
+      <c r="F28" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="81"/>
+      <c r="G28" s="83"/>
       <c r="H28" s="70"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
       <c r="K28" s="72"/>
       <c r="L28" s="54"/>
     </row>
@@ -4168,8 +4184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -4186,7 +4202,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="D1" s="76" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
@@ -4420,7 +4436,7 @@
       <c r="H18" s="20"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="12.75" customHeight="1">
+    <row r="19" spans="1:9" ht="37" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="20"/>
       <c r="C19" s="16" t="s">
@@ -4743,8 +4759,8 @@
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
       <c r="H43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="12.75" customHeight="1">
@@ -4753,29 +4769,23 @@
         <v>28</v>
       </c>
       <c r="D44" s="79"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="G44" s="79"/>
-      <c r="H44" s="20"/>
-    </row>
-    <row r="45" spans="1:9" ht="12.75" customHeight="1">
+      <c r="E44" s="86"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="87"/>
+    </row>
+    <row r="45" spans="1:9" ht="36" customHeight="1">
       <c r="B45" s="20"/>
       <c r="C45" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="20"/>
+        <v>80</v>
+      </c>
+      <c r="E45" s="86"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="89"/>
+      <c r="H45" s="87"/>
     </row>
     <row r="46" spans="1:9" ht="12.75" customHeight="1">
       <c r="B46" s="20"/>
@@ -4785,22 +4795,18 @@
       <c r="D46" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H46" s="20"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="87"/>
     </row>
     <row r="47" spans="1:9" ht="12.75" customHeight="1">
       <c r="B47" s="28"/>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
       <c r="E47" s="14"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
       <c r="H47" s="13"/>
     </row>
     <row r="48" spans="1:9" ht="12.75" customHeight="1">
@@ -4832,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="56" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E50" s="70"/>
       <c r="F50" s="4"/>
@@ -4879,10 +4885,10 @@
     </row>
     <row r="54" spans="1:9" ht="12.75" customHeight="1">
       <c r="B54" s="69"/>
-      <c r="C54" s="80" t="s">
+      <c r="C54" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="81"/>
+      <c r="D54" s="83"/>
       <c r="E54" s="69"/>
       <c r="F54" s="78" t="s">
         <v>29</v>
@@ -4890,7 +4896,7 @@
       <c r="G54" s="79"/>
       <c r="H54" s="20"/>
     </row>
-    <row r="55" spans="1:9" ht="12.75" customHeight="1">
+    <row r="55" spans="1:9" ht="24" customHeight="1">
       <c r="B55" s="69"/>
       <c r="C55" s="61" t="s">
         <v>7</v>
@@ -4934,11 +4940,10 @@
       <c r="H57" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="F54:G54"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F44:G44"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="C18:D18"/>
